--- a/Financials/Quarterly/RYCEY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/RYCEY_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D337F-091B-4B98-9DA9-2CBC339E6B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RYCEY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,155 +689,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42185</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10750100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9765400</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10553200</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8681500</v>
+      </c>
+      <c r="H8" s="3">
+        <v>11077500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8428500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9593200</v>
+      </c>
+      <c r="K8" s="3">
+        <v>8388000</v>
+      </c>
+      <c r="L8" s="3">
         <v>9858800</v>
       </c>
-      <c r="E8" s="3">
-        <v>10742400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>8764600</v>
-      </c>
-      <c r="G8" s="3">
-        <v>11183500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>8509100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>9685000</v>
-      </c>
-      <c r="J8" s="3">
-        <v>8388000</v>
-      </c>
-      <c r="K8" s="3">
-        <v>9858800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9396600</v>
+        <v>9521500</v>
       </c>
       <c r="E9" s="3">
-        <v>8839600</v>
+        <v>9307600</v>
       </c>
       <c r="F9" s="3">
-        <v>7638700</v>
+        <v>8509300</v>
       </c>
       <c r="G9" s="3">
-        <v>8740900</v>
+        <v>7566300</v>
       </c>
       <c r="H9" s="3">
-        <v>6938200</v>
+        <v>8658000</v>
       </c>
       <c r="I9" s="3">
-        <v>7055400</v>
+        <v>6872400</v>
       </c>
       <c r="J9" s="3">
+        <v>6988500</v>
+      </c>
+      <c r="K9" s="3">
         <v>6716900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7418800</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>462200</v>
+        <v>1228700</v>
       </c>
       <c r="E10" s="3">
-        <v>1902800</v>
+        <v>457800</v>
       </c>
       <c r="F10" s="3">
-        <v>1125900</v>
+        <v>2043900</v>
       </c>
       <c r="G10" s="3">
-        <v>2442600</v>
+        <v>1115200</v>
       </c>
       <c r="H10" s="3">
-        <v>1570900</v>
+        <v>2419500</v>
       </c>
       <c r="I10" s="3">
-        <v>2629600</v>
+        <v>1556000</v>
       </c>
       <c r="J10" s="3">
+        <v>2604700</v>
+      </c>
+      <c r="K10" s="3">
         <v>1671000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2440000</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -814,37 +862,41 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>396400</v>
+        <v>451300</v>
       </c>
       <c r="E12" s="3">
-        <v>884900</v>
+        <v>392600</v>
       </c>
       <c r="F12" s="3">
-        <v>1075800</v>
+        <v>876500</v>
       </c>
       <c r="G12" s="3">
-        <v>676800</v>
+        <v>1065600</v>
       </c>
       <c r="H12" s="3">
+        <v>670400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>526900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>540000</v>
+      </c>
+      <c r="K12" s="3">
         <v>532000</v>
       </c>
-      <c r="I12" s="3">
-        <v>545200</v>
-      </c>
-      <c r="J12" s="3">
-        <v>532000</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,51 +924,57 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-346300</v>
+        <v>9100</v>
       </c>
       <c r="E14" s="3">
-        <v>-1403700</v>
+        <v>-343000</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-1023900</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>77700</v>
+        <v>71700</v>
       </c>
       <c r="E15" s="3">
-        <v>96100</v>
+        <v>77000</v>
       </c>
       <c r="F15" s="3">
-        <v>100100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>11</v>
+        <v>95200</v>
+      </c>
+      <c r="G15" s="3">
+        <v>99100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>11</v>
@@ -930,8 +988,11 @@
       <c r="K15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,66 +1001,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10407900</v>
+        <v>11253600</v>
       </c>
       <c r="E17" s="3">
-        <v>8721100</v>
+        <v>10309300</v>
       </c>
       <c r="F17" s="3">
-        <v>8900200</v>
+        <v>8917600</v>
       </c>
       <c r="G17" s="3">
-        <v>11440300</v>
+        <v>8815800</v>
       </c>
       <c r="H17" s="3">
-        <v>8198300</v>
+        <v>11331800</v>
       </c>
       <c r="I17" s="3">
-        <v>8207600</v>
+        <v>8120600</v>
       </c>
       <c r="J17" s="3">
+        <v>8129800</v>
+      </c>
+      <c r="K17" s="3">
         <v>7888900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8679000</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-549100</v>
+        <v>-503500</v>
       </c>
       <c r="E18" s="3">
-        <v>2021300</v>
+        <v>-543900</v>
       </c>
       <c r="F18" s="3">
-        <v>-135600</v>
+        <v>1635600</v>
       </c>
       <c r="G18" s="3">
-        <v>-256800</v>
+        <v>-134300</v>
       </c>
       <c r="H18" s="3">
-        <v>310800</v>
+        <v>-254300</v>
       </c>
       <c r="I18" s="3">
-        <v>1477400</v>
+        <v>307800</v>
       </c>
       <c r="J18" s="3">
+        <v>1463400</v>
+      </c>
+      <c r="K18" s="3">
         <v>499100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1179800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1011,153 +1079,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1049500</v>
+        <v>-1617300</v>
       </c>
       <c r="E20" s="3">
-        <v>1621000</v>
+        <v>-1039500</v>
       </c>
       <c r="F20" s="3">
-        <v>2084500</v>
+        <v>1605600</v>
       </c>
       <c r="G20" s="3">
-        <v>-2970700</v>
+        <v>2064700</v>
       </c>
       <c r="H20" s="3">
-        <v>-3086600</v>
+        <v>-2942500</v>
       </c>
       <c r="I20" s="3">
-        <v>-1623600</v>
+        <v>-3057300</v>
       </c>
       <c r="J20" s="3">
+        <v>-1608200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-48700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1991000</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1066600</v>
+        <v>-1471300</v>
       </c>
       <c r="E21" s="3">
-        <v>4163700</v>
+        <v>-1056500</v>
       </c>
       <c r="F21" s="3">
-        <v>2466300</v>
+        <v>3755100</v>
       </c>
       <c r="G21" s="3">
-        <v>-2653300</v>
+        <v>2443000</v>
       </c>
       <c r="H21" s="3">
-        <v>-2257000</v>
+        <v>-2628200</v>
       </c>
       <c r="I21" s="3">
-        <v>380600</v>
+        <v>-2235600</v>
       </c>
       <c r="J21" s="3">
+        <v>376900</v>
+      </c>
+      <c r="K21" s="3">
         <v>950700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-304200</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>63200</v>
+        <v>77000</v>
       </c>
       <c r="E22" s="3">
-        <v>40800</v>
+        <v>62600</v>
       </c>
       <c r="F22" s="3">
-        <v>47400</v>
+        <v>40400</v>
       </c>
       <c r="G22" s="3">
-        <v>46100</v>
+        <v>47000</v>
       </c>
       <c r="H22" s="3">
-        <v>55300</v>
+        <v>45700</v>
       </c>
       <c r="I22" s="3">
-        <v>51400</v>
+        <v>54800</v>
       </c>
       <c r="J22" s="3">
+        <v>50900</v>
+      </c>
+      <c r="K22" s="3">
         <v>42100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1661800</v>
+        <v>-2197800</v>
       </c>
       <c r="E23" s="3">
-        <v>3601400</v>
+        <v>-1646000</v>
       </c>
       <c r="F23" s="3">
-        <v>1901400</v>
+        <v>3200800</v>
       </c>
       <c r="G23" s="3">
-        <v>-3273500</v>
+        <v>1883400</v>
       </c>
       <c r="H23" s="3">
-        <v>-2831100</v>
+        <v>-3242500</v>
       </c>
       <c r="I23" s="3">
-        <v>-197500</v>
+        <v>-2804300</v>
       </c>
       <c r="J23" s="3">
+        <v>-195600</v>
+      </c>
+      <c r="K23" s="3">
         <v>408200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-850600</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-397700</v>
+        <v>-272600</v>
       </c>
       <c r="E24" s="3">
-        <v>254100</v>
+        <v>-393900</v>
       </c>
       <c r="F24" s="3">
-        <v>358200</v>
+        <v>251700</v>
       </c>
       <c r="G24" s="3">
-        <v>-297600</v>
+        <v>354800</v>
       </c>
       <c r="H24" s="3">
-        <v>-497700</v>
+        <v>-294800</v>
       </c>
       <c r="I24" s="3">
-        <v>165900</v>
+        <v>-493000</v>
       </c>
       <c r="J24" s="3">
+        <v>164300</v>
+      </c>
+      <c r="K24" s="3">
         <v>-65800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-44800</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1185,66 +1269,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1264100</v>
+        <v>-1925200</v>
       </c>
       <c r="E26" s="3">
-        <v>3347300</v>
+        <v>-1252100</v>
       </c>
       <c r="F26" s="3">
-        <v>1543300</v>
+        <v>2949000</v>
       </c>
       <c r="G26" s="3">
-        <v>-2975900</v>
+        <v>1528700</v>
       </c>
       <c r="H26" s="3">
-        <v>-2333400</v>
+        <v>-2947700</v>
       </c>
       <c r="I26" s="3">
-        <v>-363400</v>
+        <v>-2311200</v>
       </c>
       <c r="J26" s="3">
+        <v>-360000</v>
+      </c>
+      <c r="K26" s="3">
         <v>474000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-805900</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1266800</v>
+        <v>-1933000</v>
       </c>
       <c r="E27" s="3">
-        <v>3346000</v>
+        <v>-1254700</v>
       </c>
       <c r="F27" s="3">
-        <v>1543300</v>
+        <v>2947700</v>
       </c>
       <c r="G27" s="3">
-        <v>-2975900</v>
+        <v>1528700</v>
       </c>
       <c r="H27" s="3">
-        <v>-2333400</v>
+        <v>-2947700</v>
       </c>
       <c r="I27" s="3">
-        <v>-364800</v>
+        <v>-2311200</v>
       </c>
       <c r="J27" s="3">
+        <v>-361300</v>
+      </c>
+      <c r="K27" s="3">
         <v>474000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-807200</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1272,19 +1365,22 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>56100</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="3">
-        <v>-65800</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>11</v>
+      <c r="F29" s="3">
+        <v>-65200</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>11</v>
@@ -1292,17 +1388,20 @@
       <c r="H29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1330,8 +1429,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1359,66 +1461,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1049500</v>
+        <v>1617300</v>
       </c>
       <c r="E32" s="3">
-        <v>-1621000</v>
+        <v>1039500</v>
       </c>
       <c r="F32" s="3">
-        <v>-2084500</v>
+        <v>-1605600</v>
       </c>
       <c r="G32" s="3">
-        <v>2970700</v>
+        <v>-2064700</v>
       </c>
       <c r="H32" s="3">
-        <v>3086600</v>
+        <v>2942500</v>
       </c>
       <c r="I32" s="3">
-        <v>1623600</v>
+        <v>3057300</v>
       </c>
       <c r="J32" s="3">
+        <v>1608200</v>
+      </c>
+      <c r="K32" s="3">
         <v>48700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1266800</v>
+        <v>-1876900</v>
       </c>
       <c r="E33" s="3">
-        <v>3280100</v>
+        <v>-1254700</v>
       </c>
       <c r="F33" s="3">
-        <v>1543300</v>
+        <v>2882500</v>
       </c>
       <c r="G33" s="3">
-        <v>-2975900</v>
+        <v>1528700</v>
       </c>
       <c r="H33" s="3">
-        <v>-2333400</v>
+        <v>-2947700</v>
       </c>
       <c r="I33" s="3">
-        <v>-364800</v>
+        <v>-2311200</v>
       </c>
       <c r="J33" s="3">
+        <v>-361300</v>
+      </c>
+      <c r="K33" s="3">
         <v>474000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-625500</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1446,71 +1557,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1266800</v>
+        <v>-1876900</v>
       </c>
       <c r="E35" s="3">
-        <v>3280100</v>
+        <v>-1254700</v>
       </c>
       <c r="F35" s="3">
-        <v>1543300</v>
+        <v>2882500</v>
       </c>
       <c r="G35" s="3">
-        <v>-2975900</v>
+        <v>1528700</v>
       </c>
       <c r="H35" s="3">
-        <v>-2333400</v>
+        <v>-2947700</v>
       </c>
       <c r="I35" s="3">
-        <v>-364800</v>
+        <v>-2311200</v>
       </c>
       <c r="J35" s="3">
+        <v>-361300</v>
+      </c>
+      <c r="K35" s="3">
         <v>474000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-625500</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42185</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1522,8 +1642,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1535,269 +1656,297 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5766200</v>
+        <v>6487600</v>
       </c>
       <c r="E41" s="3">
-        <v>3888500</v>
+        <v>5711600</v>
       </c>
       <c r="F41" s="3">
-        <v>3076000</v>
+        <v>3851600</v>
       </c>
       <c r="G41" s="3">
-        <v>3648800</v>
+        <v>3046900</v>
       </c>
       <c r="H41" s="3">
-        <v>3011500</v>
+        <v>3614200</v>
       </c>
       <c r="I41" s="3">
-        <v>4182100</v>
+        <v>2983000</v>
       </c>
       <c r="J41" s="3">
+        <v>4142500</v>
+      </c>
+      <c r="K41" s="3">
         <v>2081800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3768700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9200</v>
+        <v>7800</v>
       </c>
       <c r="E42" s="3">
-        <v>4000</v>
+        <v>9100</v>
       </c>
       <c r="F42" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G42" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H42" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I42" s="3">
         <v>1300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2600</v>
-      </c>
-      <c r="J42" s="3">
-        <v>9200</v>
       </c>
       <c r="K42" s="3">
         <v>9200</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8390600</v>
+        <v>8844500</v>
       </c>
       <c r="E43" s="3">
-        <v>8372200</v>
+        <v>8311100</v>
       </c>
       <c r="F43" s="3">
-        <v>9552000</v>
+        <v>8236700</v>
       </c>
       <c r="G43" s="3">
-        <v>9201700</v>
+        <v>9461500</v>
       </c>
       <c r="H43" s="3">
-        <v>9429500</v>
+        <v>9114500</v>
       </c>
       <c r="I43" s="3">
-        <v>8252300</v>
+        <v>9340200</v>
       </c>
       <c r="J43" s="3">
+        <v>8174100</v>
+      </c>
+      <c r="K43" s="3">
         <v>7426700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7279200</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5352800</v>
+        <v>5591600</v>
       </c>
       <c r="E44" s="3">
-        <v>5119700</v>
+        <v>5302000</v>
       </c>
       <c r="F44" s="3">
-        <v>4610100</v>
+        <v>4960300</v>
       </c>
       <c r="G44" s="3">
-        <v>4063600</v>
+        <v>4566400</v>
       </c>
       <c r="H44" s="3">
-        <v>4167600</v>
+        <v>4025100</v>
       </c>
       <c r="I44" s="3">
-        <v>3472400</v>
+        <v>4128100</v>
       </c>
       <c r="J44" s="3">
+        <v>3439500</v>
+      </c>
+      <c r="K44" s="3">
         <v>3858200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3644900</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1153500</v>
+        <v>1006900</v>
       </c>
       <c r="E45" s="3">
-        <v>56600</v>
+        <v>1142600</v>
       </c>
       <c r="F45" s="3">
-        <v>23700</v>
+        <v>56100</v>
       </c>
       <c r="G45" s="3">
-        <v>13200</v>
+        <v>23500</v>
       </c>
       <c r="H45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>65200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>44300</v>
+      </c>
+      <c r="K45" s="3">
         <v>65800</v>
       </c>
-      <c r="I45" s="3">
-        <v>44800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>65800</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>20672300</v>
+        <v>21938500</v>
       </c>
       <c r="E46" s="3">
-        <v>17440900</v>
+        <v>20476400</v>
       </c>
       <c r="F46" s="3">
-        <v>17265800</v>
+        <v>17108600</v>
       </c>
       <c r="G46" s="3">
-        <v>16931300</v>
+        <v>17102100</v>
       </c>
       <c r="H46" s="3">
-        <v>16675800</v>
+        <v>16770800</v>
       </c>
       <c r="I46" s="3">
-        <v>15954200</v>
+        <v>16517800</v>
       </c>
       <c r="J46" s="3">
+        <v>15803000</v>
+      </c>
+      <c r="K46" s="3">
         <v>13441800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14732200</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>979700</v>
+        <v>566100</v>
       </c>
       <c r="E47" s="3">
-        <v>940200</v>
+        <v>970400</v>
       </c>
       <c r="F47" s="3">
-        <v>1171900</v>
+        <v>523000</v>
       </c>
       <c r="G47" s="3">
-        <v>1161400</v>
+        <v>1160800</v>
       </c>
       <c r="H47" s="3">
-        <v>1056100</v>
+        <v>1150400</v>
       </c>
       <c r="I47" s="3">
-        <v>801900</v>
+        <v>1046100</v>
       </c>
       <c r="J47" s="3">
+        <v>794300</v>
+      </c>
+      <c r="K47" s="3">
         <v>738700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>750600</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5917700</v>
+        <v>6428900</v>
       </c>
       <c r="E48" s="3">
-        <v>6152000</v>
+        <v>5861600</v>
       </c>
       <c r="F48" s="3">
-        <v>5360700</v>
+        <v>6075500</v>
       </c>
       <c r="G48" s="3">
-        <v>5417300</v>
+        <v>5309800</v>
       </c>
       <c r="H48" s="3">
-        <v>4895800</v>
+        <v>5365900</v>
       </c>
       <c r="I48" s="3">
-        <v>4595600</v>
+        <v>4849400</v>
       </c>
       <c r="J48" s="3">
+        <v>4552000</v>
+      </c>
+      <c r="K48" s="3">
         <v>4361200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4537700</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6934200</v>
+        <v>6906300</v>
       </c>
       <c r="E49" s="3">
-        <v>7459600</v>
+        <v>6868500</v>
       </c>
       <c r="F49" s="3">
-        <v>6938200</v>
+        <v>7258500</v>
       </c>
       <c r="G49" s="3">
-        <v>6689300</v>
+        <v>6872400</v>
       </c>
       <c r="H49" s="3">
-        <v>6570800</v>
+        <v>6625900</v>
       </c>
       <c r="I49" s="3">
-        <v>6116500</v>
+        <v>6508500</v>
       </c>
       <c r="J49" s="3">
+        <v>6058500</v>
+      </c>
+      <c r="K49" s="3">
         <v>5894000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6325900</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1825,8 +1974,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1854,37 +2006,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5093300</v>
+        <v>5711600</v>
       </c>
       <c r="E52" s="3">
-        <v>4710200</v>
+        <v>5045100</v>
       </c>
       <c r="F52" s="3">
-        <v>3015400</v>
+        <v>5459800</v>
       </c>
       <c r="G52" s="3">
-        <v>3428900</v>
+        <v>2986900</v>
       </c>
       <c r="H52" s="3">
-        <v>3309100</v>
+        <v>3396400</v>
       </c>
       <c r="I52" s="3">
-        <v>1927800</v>
+        <v>3277700</v>
       </c>
       <c r="J52" s="3">
+        <v>1909500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2133200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2918000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1912,37 +2070,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>39597200</v>
+        <v>41551400</v>
       </c>
       <c r="E54" s="3">
-        <v>36702900</v>
+        <v>39221900</v>
       </c>
       <c r="F54" s="3">
-        <v>33752000</v>
+        <v>36425500</v>
       </c>
       <c r="G54" s="3">
-        <v>33628200</v>
+        <v>33432100</v>
       </c>
       <c r="H54" s="3">
-        <v>32507600</v>
+        <v>33309500</v>
       </c>
       <c r="I54" s="3">
-        <v>29396000</v>
+        <v>32199500</v>
       </c>
       <c r="J54" s="3">
+        <v>29117400</v>
+      </c>
+      <c r="K54" s="3">
         <v>26568900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>29264300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1954,8 +2118,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1967,182 +2132,201 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13408900</v>
+        <v>10815300</v>
       </c>
       <c r="E57" s="3">
-        <v>15344600</v>
+        <v>13281800</v>
       </c>
       <c r="F57" s="3">
-        <v>10688400</v>
+        <v>8980200</v>
       </c>
       <c r="G57" s="3">
-        <v>10477700</v>
+        <v>10587100</v>
       </c>
       <c r="H57" s="3">
-        <v>9907500</v>
+        <v>10378400</v>
       </c>
       <c r="I57" s="3">
-        <v>9116100</v>
+        <v>9813600</v>
       </c>
       <c r="J57" s="3">
+        <v>9029700</v>
+      </c>
+      <c r="K57" s="3">
         <v>8631600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8942300</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1049500</v>
+        <v>1119100</v>
       </c>
       <c r="E58" s="3">
-        <v>108000</v>
+        <v>1039500</v>
       </c>
       <c r="F58" s="3">
-        <v>223900</v>
+        <v>107000</v>
       </c>
       <c r="G58" s="3">
-        <v>226500</v>
+        <v>221700</v>
       </c>
       <c r="H58" s="3">
-        <v>158000</v>
+        <v>224300</v>
       </c>
       <c r="I58" s="3">
-        <v>551700</v>
+        <v>156500</v>
       </c>
       <c r="J58" s="3">
+        <v>546500</v>
+      </c>
+      <c r="K58" s="3">
         <v>354200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2307000</v>
+        <v>7435900</v>
       </c>
       <c r="E59" s="3">
-        <v>2483500</v>
+        <v>2285200</v>
       </c>
       <c r="F59" s="3">
-        <v>1632800</v>
+        <v>7126700</v>
       </c>
       <c r="G59" s="3">
-        <v>1850100</v>
+        <v>1617300</v>
       </c>
       <c r="H59" s="3">
-        <v>1380000</v>
+        <v>1832600</v>
       </c>
       <c r="I59" s="3">
-        <v>1094300</v>
+        <v>1366900</v>
       </c>
       <c r="J59" s="3">
+        <v>1083900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1046800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1087700</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16765400</v>
+        <v>19370300</v>
       </c>
       <c r="E60" s="3">
-        <v>17170900</v>
+        <v>16606500</v>
       </c>
       <c r="F60" s="3">
-        <v>12545100</v>
+        <v>16213900</v>
       </c>
       <c r="G60" s="3">
-        <v>12554300</v>
+        <v>12426200</v>
       </c>
       <c r="H60" s="3">
-        <v>11445500</v>
+        <v>12435300</v>
       </c>
       <c r="I60" s="3">
-        <v>10762100</v>
+        <v>11337100</v>
       </c>
       <c r="J60" s="3">
+        <v>10660100</v>
+      </c>
+      <c r="K60" s="3">
         <v>10032600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10119500</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4798400</v>
+        <v>4961600</v>
       </c>
       <c r="E61" s="3">
-        <v>4485000</v>
+        <v>4752900</v>
       </c>
       <c r="F61" s="3">
-        <v>4479700</v>
+        <v>4442500</v>
       </c>
       <c r="G61" s="3">
-        <v>4194000</v>
+        <v>4437300</v>
       </c>
       <c r="H61" s="3">
-        <v>4229500</v>
+        <v>4154200</v>
       </c>
       <c r="I61" s="3">
-        <v>3796300</v>
+        <v>4189400</v>
       </c>
       <c r="J61" s="3">
+        <v>3760300</v>
+      </c>
+      <c r="K61" s="3">
         <v>2550600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2887700</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17019500</v>
+        <v>18591600</v>
       </c>
       <c r="E62" s="3">
-        <v>16658700</v>
+        <v>16858200</v>
       </c>
       <c r="F62" s="3">
-        <v>12456800</v>
+        <v>14552200</v>
       </c>
       <c r="G62" s="3">
-        <v>14425400</v>
+        <v>12338800</v>
       </c>
       <c r="H62" s="3">
-        <v>11773400</v>
+        <v>14288700</v>
       </c>
       <c r="I62" s="3">
-        <v>8232600</v>
+        <v>11661800</v>
       </c>
       <c r="J62" s="3">
+        <v>8154500</v>
+      </c>
+      <c r="K62" s="3">
         <v>6861800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7846800</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2170,8 +2354,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,8 +2386,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2228,37 +2418,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>38608300</v>
+        <v>42952200</v>
       </c>
       <c r="E66" s="3">
-        <v>35112200</v>
+        <v>38242400</v>
       </c>
       <c r="F66" s="3">
-        <v>29484200</v>
+        <v>35212500</v>
       </c>
       <c r="G66" s="3">
-        <v>31176300</v>
+        <v>29204800</v>
       </c>
       <c r="H66" s="3">
-        <v>27451100</v>
+        <v>30880800</v>
       </c>
       <c r="I66" s="3">
-        <v>22793600</v>
+        <v>27191000</v>
       </c>
       <c r="J66" s="3">
+        <v>22577600</v>
+      </c>
+      <c r="K66" s="3">
         <v>19451600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20860600</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2270,8 +2466,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2299,8 +2496,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2328,8 +2528,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2357,8 +2560,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2386,37 +2592,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>59300</v>
+        <v>-3161600</v>
       </c>
       <c r="E72" s="3">
-        <v>996800</v>
+        <v>58700</v>
       </c>
       <c r="F72" s="3">
-        <v>3671200</v>
+        <v>628700</v>
       </c>
       <c r="G72" s="3">
-        <v>1871200</v>
+        <v>3636400</v>
       </c>
       <c r="H72" s="3">
-        <v>4474500</v>
+        <v>1853400</v>
       </c>
       <c r="I72" s="3">
-        <v>6013800</v>
+        <v>4432000</v>
       </c>
       <c r="J72" s="3">
+        <v>5956800</v>
+      </c>
+      <c r="K72" s="3">
         <v>6519400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>7779600</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2444,8 +2656,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2473,8 +2688,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2502,37 +2720,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>988900</v>
+        <v>-1400800</v>
       </c>
       <c r="E76" s="3">
-        <v>1590700</v>
+        <v>979500</v>
       </c>
       <c r="F76" s="3">
-        <v>4267700</v>
+        <v>1213000</v>
       </c>
       <c r="G76" s="3">
-        <v>2451900</v>
+        <v>4227300</v>
       </c>
       <c r="H76" s="3">
-        <v>5056500</v>
+        <v>2428600</v>
       </c>
       <c r="I76" s="3">
-        <v>6602400</v>
+        <v>5008600</v>
       </c>
       <c r="J76" s="3">
+        <v>6539800</v>
+      </c>
+      <c r="K76" s="3">
         <v>7117200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8403800</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2560,71 +2784,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42185</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1266800</v>
+        <v>-1876900</v>
       </c>
       <c r="E81" s="3">
-        <v>3280100</v>
+        <v>-1254700</v>
       </c>
       <c r="F81" s="3">
-        <v>1543300</v>
+        <v>2882500</v>
       </c>
       <c r="G81" s="3">
-        <v>-2975900</v>
+        <v>1528700</v>
       </c>
       <c r="H81" s="3">
-        <v>-2333400</v>
+        <v>-2947700</v>
       </c>
       <c r="I81" s="3">
-        <v>-364800</v>
+        <v>-2311200</v>
       </c>
       <c r="J81" s="3">
+        <v>-361300</v>
+      </c>
+      <c r="K81" s="3">
         <v>474000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-625500</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2636,37 +2869,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>532000</v>
+        <v>649500</v>
       </c>
       <c r="E83" s="3">
-        <v>586000</v>
+        <v>526900</v>
       </c>
       <c r="F83" s="3">
-        <v>564900</v>
+        <v>580400</v>
       </c>
       <c r="G83" s="3">
-        <v>574100</v>
+        <v>559500</v>
       </c>
       <c r="H83" s="3">
-        <v>518800</v>
+        <v>568700</v>
       </c>
       <c r="I83" s="3">
-        <v>526700</v>
+        <v>513900</v>
       </c>
       <c r="J83" s="3">
+        <v>521700</v>
+      </c>
+      <c r="K83" s="3">
         <v>500400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>507000</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2694,8 +2931,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2723,8 +2963,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2752,8 +2995,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2781,8 +3027,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2810,37 +3059,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>769000</v>
+        <v>2141700</v>
       </c>
       <c r="E89" s="3">
-        <v>2138500</v>
+        <v>761700</v>
       </c>
       <c r="F89" s="3">
-        <v>244900</v>
+        <v>2118200</v>
       </c>
       <c r="G89" s="3">
-        <v>1589400</v>
+        <v>242600</v>
       </c>
       <c r="H89" s="3">
-        <v>268600</v>
+        <v>1574300</v>
       </c>
       <c r="I89" s="3">
-        <v>1798700</v>
+        <v>266100</v>
       </c>
       <c r="J89" s="3">
+        <v>1781700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-358200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1578800</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2852,37 +3107,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-882200</v>
+        <v>-733000</v>
       </c>
       <c r="E91" s="3">
-        <v>-2417600</v>
+        <v>-447400</v>
       </c>
       <c r="F91" s="3">
-        <v>-1788200</v>
+        <v>-455200</v>
       </c>
       <c r="G91" s="3">
-        <v>-891500</v>
+        <v>-496900</v>
       </c>
       <c r="H91" s="3">
-        <v>-709700</v>
+        <v>-362600</v>
       </c>
       <c r="I91" s="3">
-        <v>-662300</v>
+        <v>-400400</v>
       </c>
       <c r="J91" s="3">
+        <v>-298700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-516200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-767700</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2910,8 +3169,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2939,37 +3201,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-30300</v>
+        <v>-1241700</v>
       </c>
       <c r="E94" s="3">
-        <v>-807200</v>
+        <v>-30000</v>
       </c>
       <c r="F94" s="3">
-        <v>-787400</v>
+        <v>-725200</v>
       </c>
       <c r="G94" s="3">
-        <v>-888800</v>
+        <v>-780000</v>
       </c>
       <c r="H94" s="3">
-        <v>-906000</v>
+        <v>-880400</v>
       </c>
       <c r="I94" s="3">
-        <v>-790100</v>
+        <v>-897400</v>
       </c>
       <c r="J94" s="3">
+        <v>-782600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-520100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1931700</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2981,8 +3249,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3010,8 +3279,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3039,8 +3311,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3068,8 +3343,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3097,91 +3375,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1094300</v>
+        <v>-168300</v>
       </c>
       <c r="E100" s="3">
-        <v>-295000</v>
+        <v>1083900</v>
       </c>
       <c r="F100" s="3">
-        <v>202800</v>
+        <v>-292200</v>
       </c>
       <c r="G100" s="3">
-        <v>-235700</v>
+        <v>200900</v>
       </c>
       <c r="H100" s="3">
-        <v>-737400</v>
+        <v>-233500</v>
       </c>
       <c r="I100" s="3">
-        <v>1035000</v>
+        <v>-730400</v>
       </c>
       <c r="J100" s="3">
+        <v>1025200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-744000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-399000</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43500</v>
+        <v>43000</v>
       </c>
       <c r="E101" s="3">
-        <v>-57900</v>
+        <v>43000</v>
       </c>
       <c r="F101" s="3">
-        <v>-32900</v>
+        <v>-57400</v>
       </c>
       <c r="G101" s="3">
-        <v>172500</v>
+        <v>-32600</v>
       </c>
       <c r="H101" s="3">
-        <v>204100</v>
+        <v>170900</v>
       </c>
       <c r="I101" s="3">
-        <v>56600</v>
+        <v>202200</v>
       </c>
       <c r="J101" s="3">
+        <v>56100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-64500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1876400</v>
+        <v>774800</v>
       </c>
       <c r="E102" s="3">
-        <v>788800</v>
+        <v>1858600</v>
       </c>
       <c r="F102" s="3">
-        <v>-575400</v>
+        <v>781300</v>
       </c>
       <c r="G102" s="3">
-        <v>637300</v>
+        <v>-570000</v>
       </c>
       <c r="H102" s="3">
-        <v>-1170600</v>
+        <v>631300</v>
       </c>
       <c r="I102" s="3">
-        <v>2100300</v>
+        <v>-1159500</v>
       </c>
       <c r="J102" s="3">
+        <v>2080400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1686800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-647900</v>
       </c>
     </row>

--- a/Financials/Quarterly/RYCEY_QTR_FIN.xlsx
+++ b/Financials/Quarterly/RYCEY_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949D337F-091B-4B98-9DA9-2CBC339E6B70}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="RYCEY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>RYCEY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,168 +654,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42185</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10750100</v>
+        <v>10191200</v>
       </c>
       <c r="E8" s="3">
-        <v>9765400</v>
+        <v>10655300</v>
       </c>
       <c r="F8" s="3">
-        <v>10553200</v>
+        <v>9679300</v>
       </c>
       <c r="G8" s="3">
-        <v>8681500</v>
+        <v>10460100</v>
       </c>
       <c r="H8" s="3">
-        <v>11077500</v>
+        <v>8604900</v>
       </c>
       <c r="I8" s="3">
-        <v>8428500</v>
+        <v>10979800</v>
       </c>
       <c r="J8" s="3">
+        <v>8354100</v>
+      </c>
+      <c r="K8" s="3">
         <v>9593200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8388000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9858800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>9521500</v>
+        <v>8897100</v>
       </c>
       <c r="E9" s="3">
-        <v>9307600</v>
+        <v>9517700</v>
       </c>
       <c r="F9" s="3">
-        <v>8509300</v>
+        <v>18493600</v>
       </c>
       <c r="G9" s="3">
-        <v>7566300</v>
+        <v>8434300</v>
       </c>
       <c r="H9" s="3">
-        <v>8658000</v>
+        <v>7499600</v>
       </c>
       <c r="I9" s="3">
-        <v>6872400</v>
+        <v>8581700</v>
       </c>
       <c r="J9" s="3">
+        <v>6811800</v>
+      </c>
+      <c r="K9" s="3">
         <v>6988500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6716900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7418800</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1228700</v>
+        <v>1294100</v>
       </c>
       <c r="E10" s="3">
-        <v>457800</v>
+        <v>1137700</v>
       </c>
       <c r="F10" s="3">
-        <v>2043900</v>
+        <v>-8814400</v>
       </c>
       <c r="G10" s="3">
-        <v>1115200</v>
+        <v>2025800</v>
       </c>
       <c r="H10" s="3">
-        <v>2419500</v>
+        <v>1105400</v>
       </c>
       <c r="I10" s="3">
-        <v>1556000</v>
+        <v>2398200</v>
       </c>
       <c r="J10" s="3">
+        <v>1542300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2604700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1671000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2440000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,40 +841,44 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>451300</v>
+        <v>380100</v>
       </c>
       <c r="E12" s="3">
-        <v>392600</v>
+        <v>447300</v>
       </c>
       <c r="F12" s="3">
-        <v>876500</v>
+        <v>389100</v>
       </c>
       <c r="G12" s="3">
-        <v>1065600</v>
+        <v>868800</v>
       </c>
       <c r="H12" s="3">
-        <v>670400</v>
+        <v>1056200</v>
       </c>
       <c r="I12" s="3">
-        <v>526900</v>
+        <v>664500</v>
       </c>
       <c r="J12" s="3">
+        <v>522300</v>
+      </c>
+      <c r="K12" s="3">
         <v>540000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>532000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>558300</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -927,57 +909,63 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>9100</v>
+        <v>-152600</v>
       </c>
       <c r="E14" s="3">
-        <v>-343000</v>
+        <v>9000</v>
       </c>
       <c r="F14" s="3">
-        <v>-1023900</v>
+        <v>-340000</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>-1014900</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>31600</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>71700</v>
+        <v>71100</v>
       </c>
       <c r="E15" s="3">
-        <v>77000</v>
+        <v>71100</v>
       </c>
       <c r="F15" s="3">
-        <v>95200</v>
+        <v>76300</v>
       </c>
       <c r="G15" s="3">
-        <v>99100</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>11</v>
+        <v>94400</v>
+      </c>
+      <c r="H15" s="3">
+        <v>98300</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>11</v>
@@ -991,8 +979,11 @@
       <c r="L15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1002,72 +993,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11253600</v>
+        <v>9931400</v>
       </c>
       <c r="E17" s="3">
-        <v>10309300</v>
+        <v>11190600</v>
       </c>
       <c r="F17" s="3">
-        <v>8917600</v>
+        <v>10182200</v>
       </c>
       <c r="G17" s="3">
-        <v>8815800</v>
+        <v>8838900</v>
       </c>
       <c r="H17" s="3">
-        <v>11331800</v>
+        <v>8738100</v>
       </c>
       <c r="I17" s="3">
-        <v>8120600</v>
+        <v>11231900</v>
       </c>
       <c r="J17" s="3">
+        <v>8049000</v>
+      </c>
+      <c r="K17" s="3">
         <v>8129800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7888900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8679000</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-503500</v>
+        <v>259900</v>
       </c>
       <c r="E18" s="3">
-        <v>-543900</v>
+        <v>-535200</v>
       </c>
       <c r="F18" s="3">
-        <v>1635600</v>
+        <v>-502900</v>
       </c>
       <c r="G18" s="3">
-        <v>-134300</v>
+        <v>1621200</v>
       </c>
       <c r="H18" s="3">
-        <v>-254300</v>
+        <v>-133200</v>
       </c>
       <c r="I18" s="3">
-        <v>307800</v>
+        <v>-252100</v>
       </c>
       <c r="J18" s="3">
+        <v>305100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1463400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>499100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1179800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1080,168 +1078,184 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1617300</v>
+        <v>-1157100</v>
       </c>
       <c r="E20" s="3">
-        <v>-1039500</v>
+        <v>-1603100</v>
       </c>
       <c r="F20" s="3">
-        <v>1605600</v>
+        <v>-1030400</v>
       </c>
       <c r="G20" s="3">
-        <v>2064700</v>
+        <v>1591400</v>
       </c>
       <c r="H20" s="3">
-        <v>-2942500</v>
+        <v>2046500</v>
       </c>
       <c r="I20" s="3">
-        <v>-3057300</v>
+        <v>-2916600</v>
       </c>
       <c r="J20" s="3">
+        <v>-3030300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1608200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-48700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1991000</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1471300</v>
+        <v>-144800</v>
       </c>
       <c r="E21" s="3">
-        <v>-1056500</v>
+        <v>-1503500</v>
       </c>
       <c r="F21" s="3">
-        <v>3755100</v>
+        <v>-1001900</v>
       </c>
       <c r="G21" s="3">
-        <v>2443000</v>
+        <v>3722000</v>
       </c>
       <c r="H21" s="3">
-        <v>-2628200</v>
+        <v>2421400</v>
       </c>
       <c r="I21" s="3">
-        <v>-2235600</v>
+        <v>-2605000</v>
       </c>
       <c r="J21" s="3">
+        <v>-2215900</v>
+      </c>
+      <c r="K21" s="3">
         <v>376900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>950700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-304200</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>77000</v>
+        <v>125400</v>
       </c>
       <c r="E22" s="3">
-        <v>62600</v>
+        <v>76300</v>
       </c>
       <c r="F22" s="3">
-        <v>40400</v>
+        <v>62100</v>
       </c>
       <c r="G22" s="3">
-        <v>47000</v>
+        <v>40100</v>
       </c>
       <c r="H22" s="3">
-        <v>45700</v>
+        <v>46500</v>
       </c>
       <c r="I22" s="3">
-        <v>54800</v>
+        <v>45200</v>
       </c>
       <c r="J22" s="3">
+        <v>54300</v>
+      </c>
+      <c r="K22" s="3">
         <v>50900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>42100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39500</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2197800</v>
+        <v>-1022600</v>
       </c>
       <c r="E23" s="3">
-        <v>-1646000</v>
+        <v>-2214600</v>
       </c>
       <c r="F23" s="3">
-        <v>3200800</v>
+        <v>-1595300</v>
       </c>
       <c r="G23" s="3">
-        <v>1883400</v>
+        <v>3172600</v>
       </c>
       <c r="H23" s="3">
-        <v>-3242500</v>
+        <v>1866800</v>
       </c>
       <c r="I23" s="3">
-        <v>-2804300</v>
+        <v>-3213900</v>
       </c>
       <c r="J23" s="3">
+        <v>-2779500</v>
+      </c>
+      <c r="K23" s="3">
         <v>-195600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>408200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-850600</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-272600</v>
+        <v>150000</v>
       </c>
       <c r="E24" s="3">
-        <v>-393900</v>
+        <v>-351600</v>
       </c>
       <c r="F24" s="3">
-        <v>251700</v>
+        <v>-364600</v>
       </c>
       <c r="G24" s="3">
-        <v>354800</v>
+        <v>249500</v>
       </c>
       <c r="H24" s="3">
-        <v>-294800</v>
+        <v>351600</v>
       </c>
       <c r="I24" s="3">
-        <v>-493000</v>
+        <v>-292200</v>
       </c>
       <c r="J24" s="3">
+        <v>-488700</v>
+      </c>
+      <c r="K24" s="3">
         <v>164300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-65800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-44800</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1272,72 +1286,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1925200</v>
+        <v>-1172600</v>
       </c>
       <c r="E26" s="3">
-        <v>-1252100</v>
+        <v>-1862900</v>
       </c>
       <c r="F26" s="3">
-        <v>2949000</v>
+        <v>-1230800</v>
       </c>
       <c r="G26" s="3">
-        <v>1528700</v>
+        <v>2923000</v>
       </c>
       <c r="H26" s="3">
-        <v>-2947700</v>
+        <v>1515200</v>
       </c>
       <c r="I26" s="3">
-        <v>-2311200</v>
+        <v>-2921800</v>
       </c>
       <c r="J26" s="3">
+        <v>-2290900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-360000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>474000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-805900</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1933000</v>
+        <v>-1175200</v>
       </c>
       <c r="E27" s="3">
-        <v>-1254700</v>
+        <v>-1870700</v>
       </c>
       <c r="F27" s="3">
-        <v>2947700</v>
+        <v>-1233300</v>
       </c>
       <c r="G27" s="3">
-        <v>1528700</v>
+        <v>2921800</v>
       </c>
       <c r="H27" s="3">
-        <v>-2947700</v>
+        <v>1515200</v>
       </c>
       <c r="I27" s="3">
-        <v>-2311200</v>
+        <v>-2921800</v>
       </c>
       <c r="J27" s="3">
+        <v>-2290900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-361300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>474000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-807200</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1368,22 +1391,25 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>56100</v>
-      </c>
-      <c r="E29" s="3" t="s">
+      <c r="D29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="3">
-        <v>-65200</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>55600</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-64600</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>11</v>
@@ -1391,17 +1417,20 @@
       <c r="I29" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="J29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>181700</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,8 +1461,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1464,72 +1496,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1617300</v>
+        <v>1157100</v>
       </c>
       <c r="E32" s="3">
-        <v>1039500</v>
+        <v>1603100</v>
       </c>
       <c r="F32" s="3">
-        <v>-1605600</v>
+        <v>1030400</v>
       </c>
       <c r="G32" s="3">
-        <v>-2064700</v>
+        <v>-1591400</v>
       </c>
       <c r="H32" s="3">
-        <v>2942500</v>
+        <v>-2046500</v>
       </c>
       <c r="I32" s="3">
-        <v>3057300</v>
+        <v>2916600</v>
       </c>
       <c r="J32" s="3">
+        <v>3030300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1608200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>48700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1991000</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1876900</v>
+        <v>-1175200</v>
       </c>
       <c r="E33" s="3">
-        <v>-1254700</v>
+        <v>-1815100</v>
       </c>
       <c r="F33" s="3">
-        <v>2882500</v>
+        <v>-1233300</v>
       </c>
       <c r="G33" s="3">
-        <v>1528700</v>
+        <v>2857100</v>
       </c>
       <c r="H33" s="3">
-        <v>-2947700</v>
+        <v>1515200</v>
       </c>
       <c r="I33" s="3">
-        <v>-2311200</v>
+        <v>-2921800</v>
       </c>
       <c r="J33" s="3">
+        <v>-2290900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-361300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>474000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-625500</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1560,77 +1601,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1876900</v>
+        <v>-1175200</v>
       </c>
       <c r="E35" s="3">
-        <v>-1254700</v>
+        <v>-1815100</v>
       </c>
       <c r="F35" s="3">
-        <v>2882500</v>
+        <v>-1233300</v>
       </c>
       <c r="G35" s="3">
-        <v>1528700</v>
+        <v>2857100</v>
       </c>
       <c r="H35" s="3">
-        <v>-2947700</v>
+        <v>1515200</v>
       </c>
       <c r="I35" s="3">
-        <v>-2311200</v>
+        <v>-2921800</v>
       </c>
       <c r="J35" s="3">
+        <v>-2290900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-361300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>474000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-625500</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42185</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1643,8 +1693,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1657,51 +1708,55 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6487600</v>
+        <v>5440100</v>
       </c>
       <c r="E41" s="3">
-        <v>5711600</v>
+        <v>6430400</v>
       </c>
       <c r="F41" s="3">
-        <v>3851600</v>
+        <v>5661200</v>
       </c>
       <c r="G41" s="3">
-        <v>3046900</v>
+        <v>3817700</v>
       </c>
       <c r="H41" s="3">
-        <v>3614200</v>
+        <v>3020000</v>
       </c>
       <c r="I41" s="3">
-        <v>2983000</v>
+        <v>3582400</v>
       </c>
       <c r="J41" s="3">
+        <v>2956700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4142500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2081800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3768700</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
         <v>7800</v>
       </c>
-      <c r="E42" s="3">
-        <v>9100</v>
-      </c>
       <c r="F42" s="3">
-        <v>3900</v>
+        <v>9000</v>
       </c>
       <c r="G42" s="3">
         <v>3900</v>
@@ -1710,243 +1765,267 @@
         <v>3900</v>
       </c>
       <c r="I42" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J42" s="3">
         <v>1300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2600</v>
-      </c>
-      <c r="K42" s="3">
-        <v>9200</v>
       </c>
       <c r="L42" s="3">
         <v>9200</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="3">
+        <v>9200</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8844500</v>
+        <v>9060000</v>
       </c>
       <c r="E43" s="3">
-        <v>8311100</v>
+        <v>8766500</v>
       </c>
       <c r="F43" s="3">
-        <v>8236700</v>
+        <v>8237800</v>
       </c>
       <c r="G43" s="3">
-        <v>9461500</v>
+        <v>8164100</v>
       </c>
       <c r="H43" s="3">
-        <v>9114500</v>
+        <v>9378000</v>
       </c>
       <c r="I43" s="3">
-        <v>9340200</v>
+        <v>9034200</v>
       </c>
       <c r="J43" s="3">
+        <v>9257800</v>
+      </c>
+      <c r="K43" s="3">
         <v>8174100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>7426700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>7279200</v>
       </c>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5591600</v>
+        <v>6090400</v>
       </c>
       <c r="E44" s="3">
-        <v>5302000</v>
+        <v>5542300</v>
       </c>
       <c r="F44" s="3">
-        <v>4960300</v>
+        <v>5255300</v>
       </c>
       <c r="G44" s="3">
-        <v>4566400</v>
+        <v>4916600</v>
       </c>
       <c r="H44" s="3">
-        <v>4025100</v>
+        <v>4526100</v>
       </c>
       <c r="I44" s="3">
-        <v>4128100</v>
+        <v>3989600</v>
       </c>
       <c r="J44" s="3">
+        <v>4091700</v>
+      </c>
+      <c r="K44" s="3">
         <v>3439500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3858200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3644900</v>
       </c>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1006900</v>
+        <v>42700</v>
       </c>
       <c r="E45" s="3">
-        <v>1142600</v>
+        <v>998000</v>
       </c>
       <c r="F45" s="3">
-        <v>56100</v>
+        <v>1132500</v>
       </c>
       <c r="G45" s="3">
-        <v>23500</v>
+        <v>55600</v>
       </c>
       <c r="H45" s="3">
-        <v>13000</v>
+        <v>23300</v>
       </c>
       <c r="I45" s="3">
-        <v>65200</v>
+        <v>12900</v>
       </c>
       <c r="J45" s="3">
+        <v>64600</v>
+      </c>
+      <c r="K45" s="3">
         <v>44300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>65800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>30300</v>
       </c>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>21938500</v>
+        <v>20633200</v>
       </c>
       <c r="E46" s="3">
-        <v>20476400</v>
+        <v>21745100</v>
       </c>
       <c r="F46" s="3">
-        <v>17108600</v>
+        <v>20295800</v>
       </c>
       <c r="G46" s="3">
-        <v>17102100</v>
+        <v>16957800</v>
       </c>
       <c r="H46" s="3">
-        <v>16770800</v>
+        <v>16951300</v>
       </c>
       <c r="I46" s="3">
-        <v>16517800</v>
+        <v>16623000</v>
       </c>
       <c r="J46" s="3">
+        <v>16372100</v>
+      </c>
+      <c r="K46" s="3">
         <v>15803000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13441800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14732200</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>566100</v>
+        <v>544300</v>
       </c>
       <c r="E47" s="3">
-        <v>970400</v>
+        <v>561100</v>
       </c>
       <c r="F47" s="3">
-        <v>523000</v>
+        <v>961900</v>
       </c>
       <c r="G47" s="3">
-        <v>1160800</v>
+        <v>518400</v>
       </c>
       <c r="H47" s="3">
-        <v>1150400</v>
+        <v>1150600</v>
       </c>
       <c r="I47" s="3">
-        <v>1046100</v>
+        <v>1140300</v>
       </c>
       <c r="J47" s="3">
+        <v>1036800</v>
+      </c>
+      <c r="K47" s="3">
         <v>794300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>738700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>750600</v>
       </c>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6428900</v>
+        <v>8884200</v>
       </c>
       <c r="E48" s="3">
-        <v>5861600</v>
+        <v>6372300</v>
       </c>
       <c r="F48" s="3">
-        <v>6075500</v>
+        <v>5809900</v>
       </c>
       <c r="G48" s="3">
-        <v>5309800</v>
+        <v>6021900</v>
       </c>
       <c r="H48" s="3">
-        <v>5365900</v>
+        <v>5263000</v>
       </c>
       <c r="I48" s="3">
-        <v>4849400</v>
+        <v>5318600</v>
       </c>
       <c r="J48" s="3">
+        <v>4806700</v>
+      </c>
+      <c r="K48" s="3">
         <v>4552000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4361200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4537700</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6906300</v>
+        <v>7029000</v>
       </c>
       <c r="E49" s="3">
-        <v>6868500</v>
+        <v>6845400</v>
       </c>
       <c r="F49" s="3">
-        <v>7258500</v>
+        <v>6807900</v>
       </c>
       <c r="G49" s="3">
-        <v>6872400</v>
+        <v>7194500</v>
       </c>
       <c r="H49" s="3">
-        <v>6625900</v>
+        <v>6811800</v>
       </c>
       <c r="I49" s="3">
-        <v>6508500</v>
+        <v>6567500</v>
       </c>
       <c r="J49" s="3">
+        <v>6451100</v>
+      </c>
+      <c r="K49" s="3">
         <v>6058500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5894000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6325900</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,8 +2056,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,40 +2091,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5711600</v>
+        <v>4820900</v>
       </c>
       <c r="E52" s="3">
-        <v>5045100</v>
+        <v>5661200</v>
       </c>
       <c r="F52" s="3">
-        <v>5459800</v>
+        <v>5000600</v>
       </c>
       <c r="G52" s="3">
-        <v>2986900</v>
+        <v>5411700</v>
       </c>
       <c r="H52" s="3">
-        <v>3396400</v>
+        <v>2960500</v>
       </c>
       <c r="I52" s="3">
-        <v>3277700</v>
+        <v>3366500</v>
       </c>
       <c r="J52" s="3">
+        <v>3248800</v>
+      </c>
+      <c r="K52" s="3">
         <v>1909500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2133200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2918000</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2073,40 +2161,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>41551400</v>
+        <v>41911600</v>
       </c>
       <c r="E54" s="3">
-        <v>39221900</v>
+        <v>41185000</v>
       </c>
       <c r="F54" s="3">
-        <v>36425500</v>
+        <v>38876100</v>
       </c>
       <c r="G54" s="3">
-        <v>33432100</v>
+        <v>36104300</v>
       </c>
       <c r="H54" s="3">
-        <v>33309500</v>
+        <v>33137300</v>
       </c>
       <c r="I54" s="3">
-        <v>32199500</v>
+        <v>33015800</v>
       </c>
       <c r="J54" s="3">
+        <v>31915600</v>
+      </c>
+      <c r="K54" s="3">
         <v>29117400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>26568900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>29264300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2119,8 +2213,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2133,200 +2228,219 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>10815300</v>
+        <v>10621700</v>
       </c>
       <c r="E57" s="3">
-        <v>13281800</v>
+        <v>10720000</v>
       </c>
       <c r="F57" s="3">
-        <v>8980200</v>
+        <v>13164700</v>
       </c>
       <c r="G57" s="3">
-        <v>10587100</v>
+        <v>8901000</v>
       </c>
       <c r="H57" s="3">
-        <v>10378400</v>
+        <v>10493700</v>
       </c>
       <c r="I57" s="3">
-        <v>9813600</v>
+        <v>10286900</v>
       </c>
       <c r="J57" s="3">
+        <v>9727100</v>
+      </c>
+      <c r="K57" s="3">
         <v>9029700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>8631600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8942300</v>
       </c>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1119100</v>
+        <v>599900</v>
       </c>
       <c r="E58" s="3">
-        <v>1039500</v>
+        <v>1109200</v>
       </c>
       <c r="F58" s="3">
-        <v>107000</v>
+        <v>1030400</v>
       </c>
       <c r="G58" s="3">
-        <v>221700</v>
+        <v>106000</v>
       </c>
       <c r="H58" s="3">
-        <v>224300</v>
+        <v>219800</v>
       </c>
       <c r="I58" s="3">
-        <v>156500</v>
+        <v>222400</v>
       </c>
       <c r="J58" s="3">
+        <v>155100</v>
+      </c>
+      <c r="K58" s="3">
         <v>546500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>354200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>89500</v>
       </c>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7435900</v>
+        <v>8096900</v>
       </c>
       <c r="E59" s="3">
-        <v>2285200</v>
+        <v>7370300</v>
       </c>
       <c r="F59" s="3">
-        <v>7126700</v>
+        <v>2265000</v>
       </c>
       <c r="G59" s="3">
-        <v>1617300</v>
+        <v>7063900</v>
       </c>
       <c r="H59" s="3">
-        <v>1832600</v>
+        <v>1603100</v>
       </c>
       <c r="I59" s="3">
-        <v>1366900</v>
+        <v>1816400</v>
       </c>
       <c r="J59" s="3">
+        <v>1354900</v>
+      </c>
+      <c r="K59" s="3">
         <v>1083900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1046800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1087700</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>19370300</v>
+        <v>19318500</v>
       </c>
       <c r="E60" s="3">
-        <v>16606500</v>
+        <v>19199500</v>
       </c>
       <c r="F60" s="3">
-        <v>16213900</v>
+        <v>16460100</v>
       </c>
       <c r="G60" s="3">
-        <v>12426200</v>
+        <v>16070900</v>
       </c>
       <c r="H60" s="3">
-        <v>12435300</v>
+        <v>12316600</v>
       </c>
       <c r="I60" s="3">
-        <v>11337100</v>
+        <v>12325700</v>
       </c>
       <c r="J60" s="3">
+        <v>11237100</v>
+      </c>
+      <c r="K60" s="3">
         <v>10660100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10032600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10119500</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4961600</v>
+        <v>7840900</v>
       </c>
       <c r="E61" s="3">
-        <v>4752900</v>
+        <v>4917800</v>
       </c>
       <c r="F61" s="3">
-        <v>4442500</v>
+        <v>4711000</v>
       </c>
       <c r="G61" s="3">
-        <v>4437300</v>
+        <v>4403300</v>
       </c>
       <c r="H61" s="3">
-        <v>4154200</v>
+        <v>4398100</v>
       </c>
       <c r="I61" s="3">
-        <v>4189400</v>
+        <v>4117600</v>
       </c>
       <c r="J61" s="3">
+        <v>4152500</v>
+      </c>
+      <c r="K61" s="3">
         <v>3760300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2550600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2887700</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>18591600</v>
+        <v>18112300</v>
       </c>
       <c r="E62" s="3">
-        <v>16858200</v>
+        <v>18427700</v>
       </c>
       <c r="F62" s="3">
-        <v>14552200</v>
+        <v>16709600</v>
       </c>
       <c r="G62" s="3">
-        <v>12338800</v>
+        <v>14423900</v>
       </c>
       <c r="H62" s="3">
-        <v>14288700</v>
+        <v>12230000</v>
       </c>
       <c r="I62" s="3">
-        <v>11661800</v>
+        <v>14162700</v>
       </c>
       <c r="J62" s="3">
+        <v>11559000</v>
+      </c>
+      <c r="K62" s="3">
         <v>8154500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6861800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7846800</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2357,8 +2471,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2389,8 +2506,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,40 +2541,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42952200</v>
+        <v>45302600</v>
       </c>
       <c r="E66" s="3">
-        <v>38242400</v>
+        <v>42573500</v>
       </c>
       <c r="F66" s="3">
-        <v>35212500</v>
+        <v>37905200</v>
       </c>
       <c r="G66" s="3">
-        <v>29204800</v>
+        <v>34902000</v>
       </c>
       <c r="H66" s="3">
-        <v>30880800</v>
+        <v>28947300</v>
       </c>
       <c r="I66" s="3">
-        <v>27191000</v>
+        <v>30608600</v>
       </c>
       <c r="J66" s="3">
+        <v>26951200</v>
+      </c>
+      <c r="K66" s="3">
         <v>22577600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19451600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20860600</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2467,8 +2593,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2499,8 +2626,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2531,8 +2661,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2563,8 +2696,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2595,40 +2731,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-3161600</v>
+        <v>-5043300</v>
       </c>
       <c r="E72" s="3">
-        <v>58700</v>
+        <v>-3133800</v>
       </c>
       <c r="F72" s="3">
-        <v>628700</v>
+        <v>58200</v>
       </c>
       <c r="G72" s="3">
-        <v>3636400</v>
+        <v>623100</v>
       </c>
       <c r="H72" s="3">
-        <v>1853400</v>
+        <v>3604400</v>
       </c>
       <c r="I72" s="3">
-        <v>4432000</v>
+        <v>1837100</v>
       </c>
       <c r="J72" s="3">
+        <v>4393000</v>
+      </c>
+      <c r="K72" s="3">
         <v>5956800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>6519400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>7779600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2659,8 +2801,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2691,8 +2836,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2723,40 +2871,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1400800</v>
+        <v>-3391000</v>
       </c>
       <c r="E76" s="3">
-        <v>979500</v>
+        <v>-1388500</v>
       </c>
       <c r="F76" s="3">
-        <v>1213000</v>
+        <v>970900</v>
       </c>
       <c r="G76" s="3">
-        <v>4227300</v>
+        <v>1202300</v>
       </c>
       <c r="H76" s="3">
-        <v>2428600</v>
+        <v>4190000</v>
       </c>
       <c r="I76" s="3">
-        <v>5008600</v>
+        <v>2407200</v>
       </c>
       <c r="J76" s="3">
+        <v>4964400</v>
+      </c>
+      <c r="K76" s="3">
         <v>6539800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7117200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8403800</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2787,77 +2941,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42185</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1876900</v>
+        <v>-1175200</v>
       </c>
       <c r="E81" s="3">
-        <v>-1254700</v>
+        <v>-1815100</v>
       </c>
       <c r="F81" s="3">
-        <v>2882500</v>
+        <v>-1233300</v>
       </c>
       <c r="G81" s="3">
-        <v>1528700</v>
+        <v>2857100</v>
       </c>
       <c r="H81" s="3">
-        <v>-2947700</v>
+        <v>1515200</v>
       </c>
       <c r="I81" s="3">
-        <v>-2311200</v>
+        <v>-2921800</v>
       </c>
       <c r="J81" s="3">
+        <v>-2290900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-361300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>474000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-625500</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2870,40 +3033,44 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>649500</v>
+        <v>752400</v>
       </c>
       <c r="E83" s="3">
-        <v>526900</v>
+        <v>634800</v>
       </c>
       <c r="F83" s="3">
-        <v>580400</v>
+        <v>531300</v>
       </c>
       <c r="G83" s="3">
-        <v>559500</v>
+        <v>575300</v>
       </c>
       <c r="H83" s="3">
-        <v>568700</v>
+        <v>554600</v>
       </c>
       <c r="I83" s="3">
-        <v>513900</v>
+        <v>563700</v>
       </c>
       <c r="J83" s="3">
+        <v>509400</v>
+      </c>
+      <c r="K83" s="3">
         <v>521700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>507000</v>
       </c>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2934,8 +3101,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2966,8 +3136,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2998,8 +3171,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3030,8 +3206,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3062,40 +3241,46 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2141700</v>
+        <v>314200</v>
       </c>
       <c r="E89" s="3">
-        <v>761700</v>
+        <v>2122800</v>
       </c>
       <c r="F89" s="3">
-        <v>2118200</v>
+        <v>755000</v>
       </c>
       <c r="G89" s="3">
-        <v>242600</v>
+        <v>2099500</v>
       </c>
       <c r="H89" s="3">
-        <v>1574300</v>
+        <v>240500</v>
       </c>
       <c r="I89" s="3">
-        <v>266100</v>
+        <v>1560400</v>
       </c>
       <c r="J89" s="3">
+        <v>263700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1781700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-358200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1578800</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3108,40 +3293,44 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-733000</v>
+        <v>-451200</v>
       </c>
       <c r="E91" s="3">
-        <v>-447400</v>
+        <v>-726600</v>
       </c>
       <c r="F91" s="3">
-        <v>-455200</v>
+        <v>-443400</v>
       </c>
       <c r="G91" s="3">
-        <v>-496900</v>
+        <v>-451200</v>
       </c>
       <c r="H91" s="3">
-        <v>-362600</v>
+        <v>-492600</v>
       </c>
       <c r="I91" s="3">
-        <v>-400400</v>
+        <v>-359400</v>
       </c>
       <c r="J91" s="3">
+        <v>-396900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-298700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-516200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-767700</v>
       </c>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3172,8 +3361,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3204,40 +3396,46 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1241700</v>
+        <v>-214600</v>
       </c>
       <c r="E94" s="3">
-        <v>-30000</v>
+        <v>-1230800</v>
       </c>
       <c r="F94" s="3">
-        <v>-725200</v>
+        <v>-29700</v>
       </c>
       <c r="G94" s="3">
-        <v>-780000</v>
+        <v>-718800</v>
       </c>
       <c r="H94" s="3">
-        <v>-880400</v>
+        <v>-773100</v>
       </c>
       <c r="I94" s="3">
-        <v>-897400</v>
+        <v>-872600</v>
       </c>
       <c r="J94" s="3">
+        <v>-889500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-782600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-520100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1931700</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3250,8 +3448,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3282,8 +3481,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3314,8 +3516,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3346,8 +3551,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3378,100 +3586,112 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-168300</v>
+        <v>-1086000</v>
       </c>
       <c r="E100" s="3">
-        <v>1083900</v>
+        <v>-166800</v>
       </c>
       <c r="F100" s="3">
-        <v>-292200</v>
+        <v>1074300</v>
       </c>
       <c r="G100" s="3">
-        <v>200900</v>
+        <v>-289600</v>
       </c>
       <c r="H100" s="3">
-        <v>-233500</v>
+        <v>199100</v>
       </c>
       <c r="I100" s="3">
-        <v>-730400</v>
+        <v>-231400</v>
       </c>
       <c r="J100" s="3">
+        <v>-724000</v>
+      </c>
+      <c r="K100" s="3">
         <v>1025200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-744000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-399000</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>43000</v>
+        <v>-9000</v>
       </c>
       <c r="E101" s="3">
-        <v>43000</v>
+        <v>42700</v>
       </c>
       <c r="F101" s="3">
-        <v>-57400</v>
+        <v>42700</v>
       </c>
       <c r="G101" s="3">
-        <v>-32600</v>
+        <v>-56900</v>
       </c>
       <c r="H101" s="3">
-        <v>170900</v>
+        <v>-32300</v>
       </c>
       <c r="I101" s="3">
-        <v>202200</v>
+        <v>169400</v>
       </c>
       <c r="J101" s="3">
+        <v>200400</v>
+      </c>
+      <c r="K101" s="3">
         <v>56100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-64500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>104000</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>774800</v>
+        <v>-995500</v>
       </c>
       <c r="E102" s="3">
-        <v>1858600</v>
+        <v>767900</v>
       </c>
       <c r="F102" s="3">
-        <v>781300</v>
+        <v>1842300</v>
       </c>
       <c r="G102" s="3">
-        <v>-570000</v>
+        <v>774400</v>
       </c>
       <c r="H102" s="3">
-        <v>631300</v>
+        <v>-565000</v>
       </c>
       <c r="I102" s="3">
-        <v>-1159500</v>
+        <v>625700</v>
       </c>
       <c r="J102" s="3">
+        <v>-1149300</v>
+      </c>
+      <c r="K102" s="3">
         <v>2080400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1686800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-647900</v>
       </c>
     </row>
